--- a/US/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
@@ -527,10 +527,10 @@
         <v>8866</v>
       </c>
       <c r="W2" t="n">
-        <v>6090</v>
+        <v>6203</v>
       </c>
       <c r="X2" t="n">
-        <v>7514</v>
+        <v>7982</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         <v>112798</v>
       </c>
       <c r="W3" t="n">
-        <v>72411</v>
+        <v>72763</v>
       </c>
       <c r="X3" t="n">
-        <v>104806</v>
+        <v>105255</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>133285</v>
       </c>
       <c r="W4" t="n">
-        <v>35808</v>
+        <v>34159</v>
       </c>
       <c r="X4" t="n">
-        <v>57940</v>
+        <v>56851</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>1131</v>
       </c>
       <c r="X5" t="n">
-        <v>1262</v>
+        <v>1495</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
         <v>51632</v>
       </c>
       <c r="W6" t="n">
-        <v>55617</v>
+        <v>57673</v>
       </c>
       <c r="X6" t="n">
-        <v>57658</v>
+        <v>59377</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>41210</v>
       </c>
       <c r="W7" t="n">
-        <v>42256</v>
+        <v>45314</v>
       </c>
       <c r="X7" t="n">
-        <v>44966</v>
+        <v>49529</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         <v>41730</v>
       </c>
       <c r="W8" t="n">
-        <v>42984</v>
+        <v>47708</v>
       </c>
       <c r="X8" t="n">
-        <v>46849</v>
+        <v>43342</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         <v>42961</v>
       </c>
       <c r="W9" t="n">
-        <v>38594</v>
+        <v>39728</v>
       </c>
       <c r="X9" t="n">
-        <v>41358</v>
+        <v>43142</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>112776</v>
       </c>
       <c r="W10" t="n">
-        <v>117673</v>
+        <v>112979</v>
       </c>
       <c r="X10" t="n">
-        <v>126780</v>
+        <v>129601</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>20486</v>
       </c>
       <c r="W11" t="n">
-        <v>23185</v>
+        <v>24325</v>
       </c>
       <c r="X11" t="n">
-        <v>26952</v>
+        <v>28304</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>24553</v>
       </c>
       <c r="X12" t="n">
-        <v>25160</v>
+        <v>25147</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
